--- a/JupyterNotebooks/AveragedIntensities-SRP/Alpha2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/Alpha2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,58 +590,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9541066282420749</v>
+        <v>0.959935158501441</v>
       </c>
       <c r="D3">
-        <v>1.056563400576369</v>
+        <v>1.049798270893372</v>
       </c>
       <c r="E3">
-        <v>0.9877233429394813</v>
+        <v>0.9871181556195966</v>
       </c>
       <c r="F3">
-        <v>0.9541066282420749</v>
+        <v>0.959935158501441</v>
       </c>
       <c r="G3">
-        <v>1.038818443804035</v>
+        <v>1.036909221902017</v>
       </c>
       <c r="H3">
-        <v>0.945842939481268</v>
+        <v>0.9421037463976946</v>
       </c>
       <c r="I3">
-        <v>0.9787319884726224</v>
+        <v>0.979985590778098</v>
       </c>
       <c r="J3">
-        <v>1.056563400576369</v>
+        <v>1.049798270893372</v>
       </c>
       <c r="K3">
-        <v>0.9541066282420749</v>
+        <v>0.959935158501441</v>
       </c>
       <c r="L3">
-        <v>1.022143371757925</v>
+        <v>0.9871181556195966</v>
       </c>
       <c r="M3">
-        <v>1.022143371757925</v>
+        <v>1.018458213256484</v>
       </c>
       <c r="N3">
-        <v>1.027701729106628</v>
+        <v>1.018458213256484</v>
       </c>
       <c r="O3">
-        <v>0.9994644572526417</v>
+        <v>1.024608549471662</v>
       </c>
       <c r="P3">
-        <v>0.9994644572526417</v>
+        <v>0.9989505283381365</v>
       </c>
       <c r="Q3">
-        <v>0.9881249999999999</v>
+        <v>0.9989505283381365</v>
       </c>
       <c r="R3">
-        <v>0.9881249999999999</v>
+        <v>0.9891966858789626</v>
       </c>
       <c r="S3">
-        <v>0.9936311239193083</v>
+        <v>0.9891966858789626</v>
+      </c>
+      <c r="T3">
+        <v>0.9926416906820363</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,58 +652,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9924527577928798</v>
+        <v>0.9962427724191131</v>
       </c>
       <c r="D4">
-        <v>0.9999230420338683</v>
+        <v>0.9962065869928907</v>
       </c>
       <c r="E4">
-        <v>0.9941799500042504</v>
+        <v>0.9933546920473233</v>
       </c>
       <c r="F4">
-        <v>0.9924527577928798</v>
+        <v>0.9962427724191131</v>
       </c>
       <c r="G4">
-        <v>0.9998059246975798</v>
+        <v>0.9991383552946341</v>
       </c>
       <c r="H4">
-        <v>0.9911758642914785</v>
+        <v>0.9876755546390646</v>
       </c>
       <c r="I4">
-        <v>0.9932541040102935</v>
+        <v>0.9939013271023057</v>
       </c>
       <c r="J4">
-        <v>0.9999230420338683</v>
+        <v>0.9962065869928907</v>
       </c>
       <c r="K4">
-        <v>0.9924527577928798</v>
+        <v>0.9962427724191131</v>
       </c>
       <c r="L4">
-        <v>0.9970514960190593</v>
+        <v>0.9933546920473233</v>
       </c>
       <c r="M4">
-        <v>0.9970514960190593</v>
+        <v>0.994780639520107</v>
       </c>
       <c r="N4">
-        <v>0.9979696389118994</v>
+        <v>0.994780639520107</v>
       </c>
       <c r="O4">
-        <v>0.9955185832769994</v>
+        <v>0.9962332114449494</v>
       </c>
       <c r="P4">
-        <v>0.9955185832769994</v>
+        <v>0.995268017153109</v>
       </c>
       <c r="Q4">
-        <v>0.9947521269059695</v>
+        <v>0.9952680171531091</v>
       </c>
       <c r="R4">
-        <v>0.9947521269059695</v>
+        <v>0.9955117059696101</v>
       </c>
       <c r="S4">
-        <v>0.995131940471725</v>
+        <v>0.9955117059696101</v>
+      </c>
+      <c r="T4">
+        <v>0.9944198814158886</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -687,58 +714,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9908513413964289</v>
+        <v>0.9913555945842842</v>
       </c>
       <c r="D5">
-        <v>1.002665227292062</v>
+        <v>1.002565099727697</v>
       </c>
       <c r="E5">
-        <v>0.9925528314378276</v>
+        <v>0.9924645218287246</v>
       </c>
       <c r="F5">
-        <v>0.9908513413964289</v>
+        <v>0.9913555945842842</v>
       </c>
       <c r="G5">
-        <v>1.003876846391065</v>
+        <v>1.003847983899797</v>
       </c>
       <c r="H5">
-        <v>0.9831398993692578</v>
+        <v>0.9824777824418984</v>
       </c>
       <c r="I5">
-        <v>0.9920197567013644</v>
+        <v>0.9918234313627076</v>
       </c>
       <c r="J5">
-        <v>1.002665227292062</v>
+        <v>1.002565099727697</v>
       </c>
       <c r="K5">
-        <v>0.9908513413964289</v>
+        <v>0.9913555945842842</v>
       </c>
       <c r="L5">
-        <v>0.9976090293649446</v>
+        <v>0.9924645218287246</v>
       </c>
       <c r="M5">
-        <v>0.9976090293649446</v>
+        <v>0.9975148107782108</v>
       </c>
       <c r="N5">
-        <v>0.9996983017069846</v>
+        <v>0.9975148107782108</v>
       </c>
       <c r="O5">
-        <v>0.9953564667087726</v>
+        <v>0.9996258684854062</v>
       </c>
       <c r="P5">
-        <v>0.9953564667087728</v>
+        <v>0.9954617387135686</v>
       </c>
       <c r="Q5">
-        <v>0.9942301853806869</v>
+        <v>0.9954617387135687</v>
       </c>
       <c r="R5">
-        <v>0.9942301853806869</v>
+        <v>0.9944352026812475</v>
       </c>
       <c r="S5">
-        <v>0.9941843170980009</v>
+        <v>0.9944352026812475</v>
+      </c>
+      <c r="T5">
+        <v>0.9940890689741848</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,58 +776,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9955354275295695</v>
+        <v>0.9960959314838964</v>
       </c>
       <c r="D6">
-        <v>0.9944182535502026</v>
+        <v>0.9944566412605269</v>
       </c>
       <c r="E6">
-        <v>0.9952285107022799</v>
+        <v>0.994848783720965</v>
       </c>
       <c r="F6">
-        <v>0.9955354275295695</v>
+        <v>0.9960959314838964</v>
       </c>
       <c r="G6">
-        <v>0.9961193001587305</v>
+        <v>0.9962912928802704</v>
       </c>
       <c r="H6">
-        <v>0.994673874568221</v>
+        <v>0.9936107770493551</v>
       </c>
       <c r="I6">
-        <v>0.9950117102154762</v>
+        <v>0.9949390778223987</v>
       </c>
       <c r="J6">
-        <v>0.9944182535502026</v>
+        <v>0.9944566412605269</v>
       </c>
       <c r="K6">
-        <v>0.9955354275295695</v>
+        <v>0.9960959314838964</v>
       </c>
       <c r="L6">
-        <v>0.9948233821262413</v>
+        <v>0.994848783720965</v>
       </c>
       <c r="M6">
-        <v>0.9948233821262413</v>
+        <v>0.9946527124907459</v>
       </c>
       <c r="N6">
-        <v>0.9952553548037377</v>
+        <v>0.9946527124907459</v>
       </c>
       <c r="O6">
-        <v>0.9950607305940173</v>
+        <v>0.9951989059539207</v>
       </c>
       <c r="P6">
-        <v>0.9950607305940173</v>
+        <v>0.9951337854884628</v>
       </c>
       <c r="Q6">
-        <v>0.9951794048279053</v>
+        <v>0.9951337854884628</v>
       </c>
       <c r="R6">
-        <v>0.9951794048279053</v>
+        <v>0.9953743219873212</v>
       </c>
       <c r="S6">
-        <v>0.9951645127874134</v>
+        <v>0.9953743219873212</v>
+      </c>
+      <c r="T6">
+        <v>0.9950404173695687</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9949362300993597</v>
+        <v>1.387339174743095</v>
       </c>
       <c r="D7">
-        <v>0.9950778694753355</v>
+        <v>0.39716511093343</v>
       </c>
       <c r="E7">
-        <v>0.9953632732079455</v>
+        <v>1.024481114286854</v>
       </c>
       <c r="F7">
-        <v>0.9949362300993597</v>
+        <v>1.387339174743095</v>
       </c>
       <c r="G7">
-        <v>0.9961725939892999</v>
+        <v>0.7111694987268753</v>
       </c>
       <c r="H7">
-        <v>0.9959845843276108</v>
+        <v>1.066063385505465</v>
       </c>
       <c r="I7">
-        <v>0.9949283083447468</v>
+        <v>1.129411962922567</v>
       </c>
       <c r="J7">
-        <v>0.9950778694753355</v>
+        <v>0.39716511093343</v>
       </c>
       <c r="K7">
-        <v>0.9949362300993597</v>
+        <v>1.387339174743095</v>
       </c>
       <c r="L7">
-        <v>0.9952205713416404</v>
+        <v>1.024481114286854</v>
       </c>
       <c r="M7">
-        <v>0.9952205713416404</v>
+        <v>0.7108231126101417</v>
       </c>
       <c r="N7">
-        <v>0.9955379122241936</v>
+        <v>0.7108231126101417</v>
       </c>
       <c r="O7">
-        <v>0.9951257909275468</v>
+        <v>0.710938574649053</v>
       </c>
       <c r="P7">
-        <v>0.9951257909275468</v>
+        <v>0.9363284666544596</v>
       </c>
       <c r="Q7">
-        <v>0.9950784007205</v>
+        <v>0.9363284666544596</v>
       </c>
       <c r="R7">
-        <v>0.9950784007205</v>
+        <v>1.049081143676618</v>
       </c>
       <c r="S7">
-        <v>0.9954104765740497</v>
+        <v>1.049081143676618</v>
+      </c>
+      <c r="T7">
+        <v>0.952605041186381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.8958226795379629</v>
+      </c>
+      <c r="D8">
+        <v>0.8737749544024488</v>
+      </c>
+      <c r="E8">
+        <v>1.079422537393283</v>
+      </c>
+      <c r="F8">
+        <v>0.8958226795379629</v>
+      </c>
+      <c r="G8">
+        <v>0.9352340750914031</v>
+      </c>
+      <c r="H8">
+        <v>1.180947956254795</v>
+      </c>
+      <c r="I8">
+        <v>1.026525138625567</v>
+      </c>
+      <c r="J8">
+        <v>0.8737749544024488</v>
+      </c>
+      <c r="K8">
+        <v>0.8958226795379629</v>
+      </c>
+      <c r="L8">
+        <v>1.079422537393283</v>
+      </c>
+      <c r="M8">
+        <v>0.976598745897866</v>
+      </c>
+      <c r="N8">
+        <v>0.976598745897866</v>
+      </c>
+      <c r="O8">
+        <v>0.9628105222957117</v>
+      </c>
+      <c r="P8">
+        <v>0.949673390444565</v>
+      </c>
+      <c r="Q8">
+        <v>0.949673390444565</v>
+      </c>
+      <c r="R8">
+        <v>0.9362107127179145</v>
+      </c>
+      <c r="S8">
+        <v>0.9362107127179145</v>
+      </c>
+      <c r="T8">
+        <v>0.9986212235509101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.97</v>
+      </c>
+      <c r="D9">
+        <v>0.21</v>
+      </c>
+      <c r="E9">
+        <v>0.83</v>
+      </c>
+      <c r="F9">
+        <v>1.97</v>
+      </c>
+      <c r="G9">
+        <v>0.63</v>
+      </c>
+      <c r="H9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1.14</v>
+      </c>
+      <c r="J9">
+        <v>0.21</v>
+      </c>
+      <c r="K9">
+        <v>1.97</v>
+      </c>
+      <c r="L9">
+        <v>0.83</v>
+      </c>
+      <c r="M9">
+        <v>0.52</v>
+      </c>
+      <c r="N9">
+        <v>0.52</v>
+      </c>
+      <c r="O9">
+        <v>0.5566666666666666</v>
+      </c>
+      <c r="P9">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="Q9">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="R9">
+        <v>1.245</v>
+      </c>
+      <c r="S9">
+        <v>1.245</v>
+      </c>
+      <c r="T9">
+        <v>0.9116666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.84</v>
+      </c>
+      <c r="D10">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.42</v>
+      </c>
+      <c r="F10">
+        <v>0.84</v>
+      </c>
+      <c r="G10">
+        <v>0.29</v>
+      </c>
+      <c r="H10">
+        <v>2.44</v>
+      </c>
+      <c r="I10">
+        <v>1.27</v>
+      </c>
+      <c r="J10">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.84</v>
+      </c>
+      <c r="L10">
+        <v>1.42</v>
+      </c>
+      <c r="M10">
+        <v>0.745</v>
+      </c>
+      <c r="N10">
+        <v>0.745</v>
+      </c>
+      <c r="O10">
+        <v>0.5933333333333334</v>
+      </c>
+      <c r="P10">
+        <v>0.7766666666666667</v>
+      </c>
+      <c r="Q10">
+        <v>0.7766666666666667</v>
+      </c>
+      <c r="R10">
+        <v>0.7925</v>
+      </c>
+      <c r="S10">
+        <v>0.7925</v>
+      </c>
+      <c r="T10">
+        <v>1.055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9977772906291448</v>
+      </c>
+      <c r="D11">
+        <v>0.99357208486699</v>
+      </c>
+      <c r="E11">
+        <v>0.9944692573089144</v>
+      </c>
+      <c r="F11">
+        <v>0.9977772906291448</v>
+      </c>
+      <c r="G11">
+        <v>0.9959429918347955</v>
+      </c>
+      <c r="H11">
+        <v>0.993069502023931</v>
+      </c>
+      <c r="I11">
+        <v>0.9950548353801498</v>
+      </c>
+      <c r="J11">
+        <v>0.99357208486699</v>
+      </c>
+      <c r="K11">
+        <v>0.9977772906291448</v>
+      </c>
+      <c r="L11">
+        <v>0.9944692573089144</v>
+      </c>
+      <c r="M11">
+        <v>0.9940206710879522</v>
+      </c>
+      <c r="N11">
+        <v>0.9940206710879522</v>
+      </c>
+      <c r="O11">
+        <v>0.9946614446702333</v>
+      </c>
+      <c r="P11">
+        <v>0.9952728776016831</v>
+      </c>
+      <c r="Q11">
+        <v>0.9952728776016831</v>
+      </c>
+      <c r="R11">
+        <v>0.9958989808585486</v>
+      </c>
+      <c r="S11">
+        <v>0.9958989808585486</v>
+      </c>
+      <c r="T11">
+        <v>0.9949809936739875</v>
       </c>
     </row>
   </sheetData>
